--- a/text.xlsx
+++ b/text.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>91</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">

--- a/text.xlsx
+++ b/text.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>587</v>
+        <v>787</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">

--- a/text.xlsx
+++ b/text.xlsx
@@ -429,7 +429,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>ass</t>
+          <t>test</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>787</v>
+        <v>612</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">

--- a/text.xlsx
+++ b/text.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>612</v>
+        <v>677</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>69</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">

--- a/text.xlsx
+++ b/text.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>677</v>
+        <v>762</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>96</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">

--- a/text.xlsx
+++ b/text.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>762</v>
+        <v>685</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">

--- a/text.xlsx
+++ b/text.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>685</v>
+        <v>738</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>51</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">

--- a/text.xlsx
+++ b/text.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>738</v>
+        <v>752</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">

--- a/text.xlsx
+++ b/text.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>752</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>79</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">

--- a/text.xlsx
+++ b/text.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>626</v>
+        <v>885</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">

--- a/text.xlsx
+++ b/text.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>885</v>
+        <v>953</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">

--- a/text.xlsx
+++ b/text.xlsx
@@ -429,7 +429,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>Living Room</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>953</v>
+        <v>874</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>43</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">

--- a/text.xlsx
+++ b/text.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>874</v>
+        <v>996</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">

--- a/text.xlsx
+++ b/text.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>996</v>
+        <v>544</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">

--- a/text.xlsx
+++ b/text.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>544</v>
+        <v>648</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>72</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">

--- a/text.xlsx
+++ b/text.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>648</v>
+        <v>830</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">

--- a/text.xlsx
+++ b/text.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>830</v>
+        <v>701</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">

--- a/text.xlsx
+++ b/text.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>701</v>
+        <v>534</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>57</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">

--- a/text.xlsx
+++ b/text.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>534</v>
+        <v>604</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">

--- a/text.xlsx
+++ b/text.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>604</v>
+        <v>925</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">

--- a/text.xlsx
+++ b/text.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>604</v>
+        <v>677</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>95</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">

--- a/text.xlsx
+++ b/text.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>677</v>
+        <v>718</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">

--- a/text.xlsx
+++ b/text.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>718</v>
+        <v>537</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>60</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>38</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
